--- a/app/sudoku_pulp/sudoku.xlsx
+++ b/app/sudoku_pulp/sudoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a4356c8d9fefd57/ドキュメント/xlw-sample/app/sudoku_pulp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142910" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{873016E1-4736-4590-BA78-8461C36B85C5}"/>
+  <xr:revisionPtr revIDLastSave="142915" documentId="11_AD4D066CA252ABDACC1048B419D2F48C72EEDF4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFC19B3-DC9C-44DF-ADB2-705B2A9AF044}"/>
   <bookViews>
-    <workbookView xWindow="-5715" yWindow="8145" windowWidth="22470" windowHeight="10230" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="450" windowWidth="22470" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,6 +307,1586 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4352925" cy="2038350"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9593A24-BA21-4C8C-83B5-26D4E4E6D5A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3886200" y="2609850"/>
+              <a:ext cx="4352925" cy="2038350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>必ず</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>数字が埋まる</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>　</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>   </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="7"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑣</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗𝑣</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∀(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>行</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>方向の制約</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>　</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>           </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗𝑣</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>  </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∀(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑖</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>縦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>方向の制約</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>　</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>           </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖𝑗𝑣</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1  </m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∀(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑗</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>ブロックごとの</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>制約</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>:   </m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup/>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="7"/>
+                              </m:rPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑗</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup/>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝐿</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑗</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>+</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑀</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>,</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                      </m:e>
+                    </m:nary>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=1   </m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>L</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>,</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>M</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>∈</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="{"/>
+                        <m:endChr m:val="}"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0.3,6</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9593A24-BA21-4C8C-83B5-26D4E4E6D5A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3886200" y="2609850"/>
+              <a:ext cx="4352925" cy="2038350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>必ず数字が埋まる</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_𝑣▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖𝑗𝑣=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∀(𝑖,𝑗)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>行方向の制約</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑗▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖𝑗𝑣=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∀(𝑖,𝑗)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>縦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>方向の制約</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>　</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖𝑗𝑣=1  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∀(𝑖,𝑗)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ブロックごとの</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>制約</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_𝑖▒∑_𝑗▒𝑥_((𝑖+𝐿,𝑗+𝑀,𝑣)) =1   L,M</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∈{0.3,6}</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,7 +2356,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:X9"/>
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -798,15 +2378,33 @@
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
       <c r="I1" s="12"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="4"/>
+      <c r="P1" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2">
+        <v>7</v>
+      </c>
+      <c r="T1" s="3">
+        <v>5</v>
+      </c>
+      <c r="U1" s="4">
+        <v>3</v>
+      </c>
+      <c r="V1" s="2">
+        <v>6</v>
+      </c>
+      <c r="W1" s="3">
+        <v>4</v>
+      </c>
+      <c r="X1" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="13"/>
@@ -825,15 +2423,33 @@
       <c r="O2">
         <v>8</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="6"/>
+      <c r="P2" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
+      <c r="R2" s="6">
+        <v>3</v>
+      </c>
+      <c r="S2" s="5">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>8</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:24" ht="19.5" thickBot="1">
       <c r="A3" s="16"/>
@@ -854,15 +2470,33 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="9"/>
+      <c r="P3" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>7</v>
+      </c>
+      <c r="R3" s="9">
+        <v>5</v>
+      </c>
+      <c r="S3" s="7">
+        <v>4</v>
+      </c>
+      <c r="T3" s="8">
+        <v>9</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7">
+        <v>2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>8</v>
+      </c>
+      <c r="X3" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="10"/>
@@ -881,15 +2515,33 @@
       <c r="O4">
         <v>4</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="4"/>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>5</v>
+      </c>
+      <c r="R4" s="4">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3</v>
+      </c>
+      <c r="U4" s="4">
+        <v>7</v>
+      </c>
+      <c r="V4" s="2">
+        <v>8</v>
+      </c>
+      <c r="W4" s="3">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="13"/>
@@ -910,15 +2562,33 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="6"/>
+      <c r="P5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="6">
+        <v>9</v>
+      </c>
+      <c r="S5" s="5">
+        <v>8</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6">
+        <v>5</v>
+      </c>
+      <c r="V5" s="5">
+        <v>7</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="19.5" thickBot="1">
       <c r="A6" s="16"/>
@@ -937,15 +2607,33 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="9"/>
+      <c r="P6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>8</v>
+      </c>
+      <c r="R6" s="9">
+        <v>7</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <v>6</v>
+      </c>
+      <c r="U6" s="9">
+        <v>9</v>
+      </c>
+      <c r="V6" s="7">
+        <v>5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>3</v>
+      </c>
+      <c r="X6" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="10"/>
@@ -966,15 +2654,33 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="4"/>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>9</v>
+      </c>
+      <c r="T7" s="3">
+        <v>7</v>
+      </c>
+      <c r="U7" s="4">
+        <v>4</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>6</v>
+      </c>
+      <c r="X7" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="13"/>
@@ -995,15 +2701,33 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="6"/>
+      <c r="P8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>3</v>
+      </c>
+      <c r="R8" s="6">
+        <v>8</v>
+      </c>
+      <c r="S8" s="5">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>6</v>
+      </c>
+      <c r="V8" s="5">
+        <v>9</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="19.5" thickBot="1">
       <c r="A9" s="16"/>
@@ -1019,20 +2743,39 @@
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="9"/>
+      <c r="P9" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>9</v>
+      </c>
+      <c r="R9" s="9">
+        <v>6</v>
+      </c>
+      <c r="S9" s="7">
+        <v>3</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>8</v>
+      </c>
+      <c r="V9" s="7">
+        <v>4</v>
+      </c>
+      <c r="W9" s="8">
+        <v>5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
